--- a/entrada3.xlsx
+++ b/entrada3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alinsperedu-my.sharepoint.com/personal/gabrielamb2_al_insper_edu_br/Documents/INSPER/5 semestre/MECSOL/APS4-mecsol/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabi_XPS\OneDrive - Insper - Institudo de Ensino e Pesquisa\INSPER\5 semestre\MECSOL\APS4-mecsol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{CB4D5B0C-783A-42E9-974B-A36457E9255E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A49A6226-1E0F-42AA-AC4F-F4AE3D3E02E6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6364CF75-DF83-4995-924B-C9163525BAB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nos" sheetId="1" r:id="rId1"/>
@@ -145,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -180,6 +180,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -519,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -633,6 +636,14 @@
       </c>
       <c r="C11" s="11"/>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -640,10 +651,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D19"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -929,6 +940,22 @@
       <c r="D19" s="3">
         <v>9.0000000000000006E-5</v>
       </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="C20" s="3"/>
+      <c r="D20" s="13"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="C21" s="3"/>
+      <c r="D21" s="13"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="C22" s="3"/>
+      <c r="D22" s="13"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="C23" s="3"/>
+      <c r="D23" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
